--- a/data/asha_ankitha/subjects.xlsx
+++ b/data/asha_ankitha/subjects.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
-    <sheet name="10MAT31" sheetId="2" r:id="rId2"/>
-    <sheet name="10ES32" sheetId="3" r:id="rId3"/>
-    <sheet name="10ES33" sheetId="4" r:id="rId4"/>
-    <sheet name="10ES34" sheetId="5" r:id="rId5"/>
-    <sheet name="10ES35" sheetId="6" r:id="rId6"/>
-    <sheet name="10ES36" sheetId="7" r:id="rId7"/>
-    <sheet name="10ESL37" sheetId="8" r:id="rId8"/>
-    <sheet name="10ESL38" sheetId="9" r:id="rId9"/>
+    <sheet name="10 MAT41" sheetId="10" r:id="rId2"/>
+    <sheet name="10ES42" sheetId="11" r:id="rId3"/>
+    <sheet name="10ES43" sheetId="12" r:id="rId4"/>
+    <sheet name="10EC44" sheetId="13" r:id="rId5"/>
+    <sheet name="10MAT31" sheetId="2" r:id="rId6"/>
+    <sheet name="10EC45" sheetId="14" r:id="rId7"/>
+    <sheet name="10EC46" sheetId="15" r:id="rId8"/>
+    <sheet name="10ESL47" sheetId="16" r:id="rId9"/>
+    <sheet name="10ECL48" sheetId="17" r:id="rId10"/>
+    <sheet name="10ES32" sheetId="3" r:id="rId11"/>
+    <sheet name="10ES33" sheetId="4" r:id="rId12"/>
+    <sheet name="10ES34" sheetId="5" r:id="rId13"/>
+    <sheet name="10ES35" sheetId="6" r:id="rId14"/>
+    <sheet name="10ES36" sheetId="7" r:id="rId15"/>
+    <sheet name="10ESL37" sheetId="8" r:id="rId16"/>
+    <sheet name="10ESL38" sheetId="9" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="315">
   <si>
     <t>ENGINEERING MATHEMATICS – III</t>
   </si>
@@ -180,13 +188,1437 @@
   </si>
   <si>
     <t>10ESL36</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Diode Circuits</t>
+  </si>
+  <si>
+    <t>Operating point, Fixed bias circuits, Emitter stabilized biased circuits, Voltage divider biased, DC bias with voltage feedback, Miscellaneous bias configurations, Design operations, Transistor switching networks, PNP transistors, Bias stabilization.</t>
+  </si>
+  <si>
+    <t>Transistor Biasing</t>
+  </si>
+  <si>
+    <r>
+      <t>BJT transistor modeling, CE Fixed bias configuration, Voltage divider bias, Emitter follower, CB configuration, Collector feedback configuration, Analysis of circuits r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model; analysis of CE configuration using h- parameter model; Relationship between h- parameter model of CE,CC and CE configuration.</t>
+    </r>
+  </si>
+  <si>
+    <t>Transistor at low frequency</t>
+  </si>
+  <si>
+    <t>Transistor Fraquency Response</t>
+  </si>
+  <si>
+    <t>General frequency considerations, low frequency response, Miller effect capacitance, High frequency response, multistage frequency effects.</t>
+  </si>
+  <si>
+    <t>Diode Resistance, Diode equivalent circuits, Transition and diffusion capacitance, Reverse recovery time, Load line analysis, Rectifiers, Clippers and clampers.</t>
+  </si>
+  <si>
+    <r>
+      <t>(a)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cascade connections, Cascode connections, Darlington connections.      (b): Feedback concept, Feedback connections type, Practical feedback circuits. Design procedures for the  feedback    amplifiers.</t>
+    </r>
+  </si>
+  <si>
+    <t>General Amplifiers   (b)Feedback Amplifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Definitions and amplifier types, series fed class A amplifier, Transformer coupled Class A amplifiers, Class B amplifier operations, Class B amplifier circuits, Amplifier distortions. Designing of Power amplifiers.</t>
+  </si>
+  <si>
+    <t>Power Amplifiers</t>
+  </si>
+  <si>
+    <t>Oscillator operation, Phase shift Oscillator, Wienbridge Oscillator, Tuned Oscillator circuits, Crystal Oscillator. (BJT Version Only) Simple design methods of Oscillators.</t>
+  </si>
+  <si>
+    <t>Oscillators</t>
+  </si>
+  <si>
+    <t>FET Amplifiers</t>
+  </si>
+  <si>
+    <t>FET small signal model, Biasing of FET, Common drain common gate configurations, MOSFETs, FET amplifier networks.</t>
+  </si>
+  <si>
+    <t>Principles of Combinational Logic 1</t>
+  </si>
+  <si>
+    <t>Principles of Combinational Logic 2</t>
+  </si>
+  <si>
+    <t>Definition of combinational logic, Canonical forms, Generation of switching equations from truth tables, Karnaugh maps-3, 4 and 5 variables, Incompletely specified functions (Don’t Care terms), Simplifying Max term equations.</t>
+  </si>
+  <si>
+    <t>Quine-McCluskey minimization technique- Quine-McCluskey using don’t care terms, Reduced Prime Implicant Tables, Map entered variables.</t>
+  </si>
+  <si>
+    <t>Analysis and Design of Combinational Logic 1</t>
+  </si>
+  <si>
+    <t>General approach, Decoders-BCD decoders, Encoders.</t>
+  </si>
+  <si>
+    <t>Analysis and Design of Combinational Logic 2</t>
+  </si>
+  <si>
+    <t>Digital  multiplexers- Using multiplexers as Boolean function generators. Adders and subtractors- Cascading full adders, Look ahead carry, Binary comparators. Design methods of building blocks of combinational logics.</t>
+  </si>
+  <si>
+    <t>Sequential Circuits 1</t>
+  </si>
+  <si>
+    <t>Characteristic Equations, Registers, Counters - Binary Ripple Counters, Synchronous Binary counters, Counters based on Shift Registers, Design of a Synchronous counters, Design of a Synchronous Mod-6 Counter using clocked JK Flip-Flops Design of a Synchronous Mod-6 Counter using clocked D, T, or SR Flip-Flops</t>
+  </si>
+  <si>
+    <t>Sequential Circuits 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Basic  Bistable  Element,  Latches,  SR      Latch,Application of SR Latch, A Switch Debouncer,  The SR Latch, The gated SR Latch, The gated D Latch, The Master-Slave Flip-Flops (Pulse-Triggered Flip-Flops): The Master-Slave SR Flip-Flops, The Master-Slave JK Flip- Flop, Edge Triggered Flip-Flop: The Positive Edge-Triggered D Flip-Flop, Negative-Edge Triggered D Flip-Flop.
+</t>
+  </si>
+  <si>
+    <t>Introduction, Mealy and Moore Models, State Machine Notation, Synchronous Sequential Circuit Analysis and Design.</t>
+  </si>
+  <si>
+    <t>Sequential Design 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Construction of state Diagrams, Counter Design.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sequential Design 2</t>
+  </si>
+  <si>
+    <t>Basic Concepts</t>
+  </si>
+  <si>
+    <t>Practical sources, Source transformations, Network reduction using Star – Delta transformation, Loop and node analysis With linearly dependent and independent sources for DC and AC networks, Concepts of super node and super mesh.</t>
+  </si>
+  <si>
+    <r>
+      <t>Graph of a network, Concept of tree and co-tree, incidence matrix, tie-set, tie-set and cut-set schedules, Formulation of equilibrium equations in matrix form, Solution of resistive networks, Principle of duality</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Network Topology</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Superposition, Reciprocity  and  Millman’s theorems.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Network Theorems 1</t>
+  </si>
+  <si>
+    <t>Network Theorems 2</t>
+  </si>
+  <si>
+    <t>Thevinin’s and Norton’s theorems; Maximum Power transfer theorem</t>
+  </si>
+  <si>
+    <t>Resonant Circuits</t>
+  </si>
+  <si>
+    <t>Series and parallel resonance, frequency- response of series and Parallel circuits, Q –factor, Bandwidth.</t>
+  </si>
+  <si>
+    <t>Behavior of circuit elements under switching condition and their Representation, evaluation of initial and final conditions in RL, RC and RLC circuits for AC and DC excitations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transient Behaviour and initial conditions</t>
+  </si>
+  <si>
+    <t>Solution of  networks,  step, ramp and impulse responses, waveform Synthesis</t>
+  </si>
+  <si>
+    <t>Laplace Transformations and Applications</t>
+  </si>
+  <si>
+    <t>Two Port Networks</t>
+  </si>
+  <si>
+    <t>Definition of z, y, h and transmission parameters, modeling with these parameters, relationship between parameters sets.</t>
+  </si>
+  <si>
+    <t>Gross errors and systematic errors, Absolute and relative errors, Accuracy, Precision, Resolution and Significant figures    (b) Introduction, Multirange voltmeter, Extending voltmeter ranges, Loading, AC voltmeter using Rectifiers – Half wave and full wave, Peak responding and True RMS voltmeters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement Errors       (b)Voltmeters and Multimeters </t>
+  </si>
+  <si>
+    <t>Digital Voltmeters – Introduction, DVM’s based on V – T, V – F and Successive approximation principles, Resolution and sensitivity, General specifications, Digital Multi-meters, Digital frequency meters, Digital measurement of time.</t>
+  </si>
+  <si>
+    <t>Digital Instruments</t>
+  </si>
+  <si>
+    <t>Introduction, Basic principles, CRT features, Block diagram and working of each block, Typical CRT connections, Dual beam and dual trace CROs, Electronic switch.</t>
+  </si>
+  <si>
+    <t>Oscilloscopes</t>
+  </si>
+  <si>
+    <t>Special Oscilloscopes</t>
+  </si>
+  <si>
+    <t>Introduction, Fixed and variable AF oscillator, Standard signal generator, Laboratory type signal generator, AF sine and Square wave generator, Function generator, Square and Pulse generator, Sweep frequency generator, Frequency synthesizer.</t>
+  </si>
+  <si>
+    <t>Signal Generators</t>
+  </si>
+  <si>
+    <t>Measurement of resistance, inductance and capacitance</t>
+  </si>
+  <si>
+    <t>Whetstone’s bridge, Kelvin Bridge; AC bridges, Capacitance Comparison Bridge, Maxwell’s bridge, Wein’s bridge, Wagner’s earth connection</t>
+  </si>
+  <si>
+    <t>Introduction, Electrical transducers, Selecting a transducer, Resistive transducer, Resistive position transducer, Strain gauges, Resistance thermometer, Thermistor, Inductive transducer, Differential output transducers and LVDT.</t>
+  </si>
+  <si>
+    <t>Transducers 1</t>
+  </si>
+  <si>
+    <t>Miscellaneous Topics
+(a) Transducers - II    (b) Display devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piezoelectric transducer, Photoelectric transducer, Photovoltaic transducer, Semiconductor photo devices, Temperature transducers-RTD, Thermocouple .      (b)Digital display system, classification of display, Display devices, LEDs, LCD displays.
+(c) Bolometer and RF power measurement using Bolometer
+(d) Introduction to Signal conditioning.
+(e) Introduction to LabView.
+</t>
+  </si>
+  <si>
+    <t>(a)Coulomb’s Law and electric field intensity   (b) Electric flux density, Gauss’ law and divergence</t>
+  </si>
+  <si>
+    <t>Derivations of Poisson’s and Laplace’s Equations, Uniqueness theorem, Examples of the solutions of Laplace’s and Poisson’s equations.</t>
+  </si>
+  <si>
+    <t>Poisson's and Laplace Equations</t>
+  </si>
+  <si>
+    <t>The Steady  Magnetic Fields</t>
+  </si>
+  <si>
+    <t>Biot-Savart law, Ampere’s circuital law, Curl, Stokes’ theorem, magnetic flux and flux density, scalar and Vector magnetic potentials.</t>
+  </si>
+  <si>
+    <t>Magnetic Forces    (b) Magnetic materials and Inductance</t>
+  </si>
+  <si>
+    <t>Faraday’s law,  displacement current, Maxwell’s equation in point and Integral form,  retarded potentials</t>
+  </si>
+  <si>
+    <t>Time varying fields and Maxwell's Equations</t>
+  </si>
+  <si>
+    <t>Energy and Potential  Conductors,Dielectrics and Capacitance</t>
+  </si>
+  <si>
+    <t>Force on a moving charge and differential current element, Force between differential current elements, Force and torque on a closed circuit.   (b) Magnetization and permeability, Magnetic boundary conditions, Magnetic circuit, Potential energy and forces on magnetic materials, Inductance and Mutual Inductance.</t>
+  </si>
+  <si>
+    <t>Wave propagation in free space and dielectrics, Poynting’s theorem and wave power, propagation in good conductors – (skin effect).</t>
+  </si>
+  <si>
+    <t>Uniform Plane Waves</t>
+  </si>
+  <si>
+    <t>Reflection of uniform plane waves at normal incidence, SWR, Plane wave propagation in general directions.</t>
+  </si>
+  <si>
+    <t>Plane Waves at boundaries and in dispersive media</t>
+  </si>
+  <si>
+    <t>Magnetic materials and inductance</t>
+  </si>
+  <si>
+    <t>Magnetization and permeability, Magnetic boundary conditions, Magnetic circuit, Potential energy and forces on magnetic materials, Inductance and Mutual Inductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Energy expended in moving a point charge in an electric field, The line integral, Definition of potential difference and Potential, The potential field of a point charge and system of charges, Potential gradient , Energy density in an electrostatic field.  (b)Current and current density, Continuity of current, metallic conductors, Conductor properties and boundary conditions, boundary conditions for perfect Dielectrics, capacitance and examples.</t>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  : Experimental law of Coulomb, Electric field intensity, Field due to continuous volume charge distribution, Field of a line charge.   (b) Electric flux density, Gauss’ law, Divergence, Maxwell’s First equation(Electrostatics), vector operator  □   and divergence theorem.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wiring of RC coupled Single stage FET &amp; BJT amplifier and determination of the gain-frequency response, input and output impedances.</t>
+    </r>
+  </si>
+  <si>
+    <t>7 Testing of Diode clipping (Single/Double ended) circuits for peak clipping, peak detection</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2.  Wiring of BJT Darlington Emitter follower with and without bootstrapping and determination of the gain, input and output impedances (Single circuit) (One Experiment)</t>
+  </si>
+  <si>
+    <t>3.    Wiring of a two stage BJT Voltage series feed back amplifier and determination of the gain, Frequency response, input and output impedances with and without feedback (One Experiment)</t>
+  </si>
+  <si>
+    <t>4.  Wiring and Testing for the performance of BJT-RC Phase shift Oscillator for f0 ≤ 10 KHz</t>
+  </si>
+  <si>
+    <t>5.  Testing for the performance of BJT – Hartley &amp; Colpitts Oscillators for  RF range f0 ≥100KHz.</t>
+  </si>
+  <si>
+    <t>6.  Testing for the performance of BJT -Crystal Oscillator for f0 &gt; 100 KHz</t>
+  </si>
+  <si>
+    <t>8.  Testing of Clamping circuits: positive clamping /negative clamping.</t>
+  </si>
+  <si>
+    <t>9.   Testing of a transformer less Class – B push pull power amplifier and determination of its conversion efficiency.</t>
+  </si>
+  <si>
+    <t>10.  Testing of Half wave, Full wave and Bridge Rectifier circuits with and without Capacitor filter. Determination of ripple factor, regulation and efficiency</t>
+  </si>
+  <si>
+    <t>11.    Verification of Thevinin’s Theorem and Maximum Power Transfer theorem for DC Circuits.</t>
+  </si>
+  <si>
+    <t>12.  Characteristics of Series and Parallel resonant circuits.</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Simplification, realization of Boolean expressions using logic gates/Universal gates.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Realization of Binary to Gray code conversion and vice versa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(i) Realization of parallel adder/Subtractors using 7483 chip   (ii)(ii) BCD to Excess-3 code conversion and vice versa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Realization of Half/Full adder and Half/Full Subtractors using logic gates.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MUX/DEMUX – use of 74153, 74139 for arithmetic circuits and code converter.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Realization of One/Two bit comparator and study of 7485 magnitude comparator.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Use of a) Decoder chip to drive LED display and b) Priority encoder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realization of 3 bit counters as a sequential circuit and MOD – N counter design (7476, 7490, 74192, 74193).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Truth table verification of Flip-Flops: (i) JK Master slave (ii) T type and (iii)D type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shift left; Shift right, SIPO, SISO, PISO, PIPO operations using 74S95.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wiring and testing Ring counter/Johnson counter.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wiring and testing of Sequence generator.</t>
+    </r>
+  </si>
+  <si>
+    <t>Subject_code</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Unit_title</t>
+  </si>
+  <si>
+    <t>Unit_discription</t>
+  </si>
+  <si>
+    <t>Numerical solution of ordinary differential equations of first order and first degree; Picard’s method, Taylor’s series method, modified Euler’s method, Runge-kutta method of fourth-order. Milne’s and Adams -  Bashforth predictor and corrector methods (No derivations of formulae).</t>
+  </si>
+  <si>
+    <t>Numerical Methods 1</t>
+  </si>
+  <si>
+    <t>Numerical Methods 2</t>
+  </si>
+  <si>
+    <t>Numerical solution of simultaneous first order ordinary differential  equations: Picard’s method, Runge-Kutta method of fourth-order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function of a complex variable, Analytic functions-Cauchy-Riemann equations in cartesian and polar forms. Properties of analytic functions.
+Application to flow problems- complex potential, velocity potential, equipotential lines, stream functions, stream lines.
+</t>
+  </si>
+  <si>
+    <t>Complex Variables 1</t>
+  </si>
+  <si>
+    <t>Complex Variables 2</t>
+  </si>
+  <si>
+    <t>Conformal    Transformations:    Bilinear    Transformations.    Discussion of Transformations:w = z 2 ,  w = ez ,  w = z + (a2 / z) . Complex line  integrals- Cauchy’s theorem and Cauchy’s integral formula</t>
+  </si>
+  <si>
+    <t>Special Functions</t>
+  </si>
+  <si>
+    <t>Solution of Laplace equation in cylindrical and spherical systems leading Bessel’s and Legendre’s differential equations, Series solution of Bessel’s differential equation leading to Bessel function of first kind. Orthogonal property of Bessel functions. Series solution of Legendre’s differential equation leading to Legendre polynomials, Rodrigue’s formula.</t>
+  </si>
+  <si>
+    <t>Probability of an event, empherical and axiomatic definition, probability associated with set theory, addition law, conditional probability, multiplication law, Baye’s theorem.</t>
+  </si>
+  <si>
+    <t>Probability Theory 1</t>
+  </si>
+  <si>
+    <t>Random variables (discrete and continuous), probability density function, cumulative density function. Probability distributions – Binomial and Poisson distributions; Exponential and normal distributions.</t>
+  </si>
+  <si>
+    <t>Probability Theory 2</t>
+  </si>
+  <si>
+    <t>Sampling, Sampling distributions, standard error, test of hypothesis for means, confidence limits for means, student’s t-distribution. Chi -Square distribution as a test of goodness of fit</t>
+  </si>
+  <si>
+    <t>Samping Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. Introduction, Microprocessors and Microcontrollers, RISC &amp; CISC CPU Architectures, Harvard &amp; Von- Neumann CPU architecture, Computer software.. Introduction, Microprocessors and Microcontrollers, RISC &amp; CISC CPU Architectures, Harvard &amp; Von- Neumann CPU architecture, Computer software.
+The 8051 Architecture: Introduction, Architecture of 8051, Pin diagram of 8051, Memory organization,  External Memory interfacing, Stacks.
+</t>
+  </si>
+  <si>
+    <t>10ES42</t>
+  </si>
+  <si>
+    <t>Microprocessors and Microcontrollers</t>
+  </si>
+  <si>
+    <t>Addressing Modes</t>
+  </si>
+  <si>
+    <t>Introduction, Instruction syntax, Data types, Subroutines, Addressing modes: Immediate addressing , Register addressing, Direct addressing, Indirect addressing, relative addressing, Absolute addressing, Long addressing, Indexed addressing, Bit inherent addressing, bit direct addressing.Instruction set: Instruction timings, 8051 instructions: Data transfer instructions, Arithmetic instructions, Logical instructions, Branch instructions, Subroutine instructions, Bit manipulation instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assembler directives, Assembly language programs and Time delay calculations.</t>
+  </si>
+  <si>
+    <t>8051Progrmming</t>
+  </si>
+  <si>
+    <t>8051 Interfacing and Applications</t>
+  </si>
+  <si>
+    <t>Basics of I/O concepts, I/O Port Operation, Interfacing 8051 to LCD, Keyboard, parallel and serial ADC, DAC, Stepper motor interfacing and DC motor interfacing and programming</t>
+  </si>
+  <si>
+    <t>Basics of interrupts, 8051 interrupt structure, Timers and Counters, 8051 timers/counters, programming 8051 timers in assembly and C .</t>
+  </si>
+  <si>
+    <t>8051 Interrupts and Timers/Counters</t>
+  </si>
+  <si>
+    <t>: Data communication, Basics of Serial Data Communication, 8051 Serial Communication, connections to RS-232, Serial communication Programming in assembly and C.8255A Programmable Peripheral Interface:, Architecture of 8255A, I/O addressing,, I/O devices interfacing with 8051 using 8255A.</t>
+  </si>
+  <si>
+    <t>8051 Serial Communication</t>
+  </si>
+  <si>
+    <t>Motivation for MSP430 Microcontroller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Power embedded systems, On-chip peripherals (analog and digital), low-power RF capabilities. Target applications (Single-chip, low cost, low power, high performance system design).MSP430 RISC CPU architecture, Compiler-friendly features, Instruction set, Clock system, Memory subsystem. Key differentiating factors between different MSP430 families.Introduction to Code Composer Studio (CCS v4). Understanding how to use CCS for Assembly, C, Assembly+C projects for MSP430 microcontrollers. Interrupt programming.
+Digital I/O – I/O ports programming using C and assembly, Understanding the muxing scheme of the MSP430 pins.
+</t>
+  </si>
+  <si>
+    <t>On Chip Peripherals</t>
+  </si>
+  <si>
+    <r>
+      <t>Watchdog Timer, Comparator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Op-Amp, Basic Timer, Real Time Clock (RTC), ADC, DAC, SD16, LCD, DMA. Watchdog Timer, Comparator, Op-Amp, Basic Timer, Real Time Clock (RTC), ADC, DAC, SD16, LCD, DMA.
+Using the Low-power features of MSP430. Clock system, low-power modes, Clock request feature, Low-power programming and Interrupt. Interfacing LED, LCD, External memory. Seven segment LED modules interfacing. Example – Real-time clock.
+Case Studies of applications of MSP430 - Data acquisition system, Wired Sensor network, Wireless sensor network with Chipcon RF interfaces.Case Studies of applications of MSP430 - Data acquisition system, Wired Sensor network, Wireless sensor network with Chipcon RF interfaces.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Introduction to Control Systems, Types of Control Systems, Effect of Feedback Systems, Differential equation of Physical Systems -Mechanical systems, Friction, Translational systems (Mechanical accelerometer, systems excluded), Rotational systems, Gear trains, Electrical systems, Analogous systems</t>
+  </si>
+  <si>
+    <t>Modeling of Systems</t>
+  </si>
+  <si>
+    <t>Block Diagrams and Signal Flow Graph</t>
+  </si>
+  <si>
+    <t>Transfer functions, Block diagram algebra, Signal Flow graphs (State variable formulation excluded),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Response of Feedback Control Systems </t>
+  </si>
+  <si>
+    <t>Standard test signals, Unit step response of First and second order systems, Time response specifications, Time response specifications of second order systems,  steady.– state errors and error constants. Introduction to PID Controllers(excluding design)</t>
+  </si>
+  <si>
+    <t>Stability Analysis</t>
+  </si>
+  <si>
+    <t>Concepts of stability, Necessary conditions for Stability, Routh- stability criterion, Relative stability analysis; More on the Routh stability criterion.</t>
+  </si>
+  <si>
+    <t>Root-Locus Techniques</t>
+  </si>
+  <si>
+    <t>Introduction,	The	root	locus	concepts, Construction of root loci.</t>
+  </si>
+  <si>
+    <t>Frequency Domain Analysis</t>
+  </si>
+  <si>
+    <t>Correlation between time and frequency response, Bode plots, Experimental determination of transfer functions, Assessment of relative stability using Bode Plots. Introduction to lead, lag  and lead-lag compensating networks (excluding design).</t>
+  </si>
+  <si>
+    <t>Stability in Fraquency Domain</t>
+  </si>
+  <si>
+    <t>Introduction to Polar Plots, (Inverse Polar Plots excluded) Mathematical preliminaries, Nyquist Stability criterion, Assessment of relative stability using Nyquist criterion, (Systems with transportation lag excluded).</t>
+  </si>
+  <si>
+    <t>Introduction to State variable Analysis</t>
+  </si>
+  <si>
+    <t>Concepts of state, state variable and state models for electrical systems, Solution of state equations.</t>
+  </si>
+  <si>
+    <t>10ES43</t>
+  </si>
+  <si>
+    <t>unit_discription</t>
+  </si>
+  <si>
+    <t>Definitions of a signal and a system, classification of signals, basic Operations on signals, elementary signals, Systems viewed as Interconnections of operations, properties of systems.</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Convolution, impulse response representation, Convolution Sum and Convolution Integral.</t>
+  </si>
+  <si>
+    <t>Time Dmain Representation for LTI Systems</t>
+  </si>
+  <si>
+    <t>Time Dmain Representation for LTI Systems 2</t>
+  </si>
+  <si>
+    <t>Properties of impulse response representation, Differential and difference equation Representations, Block diagram representations.</t>
+  </si>
+  <si>
+    <t>Introduction, Discrete time and continuous time Fourier series (derivation of series excluded) and their properties .</t>
+  </si>
+  <si>
+    <t>Fouier Representation for Signals 1</t>
+  </si>
+  <si>
+    <t>Fouier Representation for Signals 2</t>
+  </si>
+  <si>
+    <t>Discrete and continuous Fourier transforms(derivations of transforms are excluded) and their properties.</t>
+  </si>
+  <si>
+    <t>Applictions of Fourier Representations</t>
+  </si>
+  <si>
+    <t>of LTI systems, Fourier transform representation of periodic signals, Fourier transform representation of discrete time signals. Sampling theorm and Nyquist rate.</t>
+  </si>
+  <si>
+    <t>Z-Tranforms</t>
+  </si>
+  <si>
+    <t>Introduction,  Z  –  transform,  properties    of  ROC, properties of Z – transforms, inversion of Z – transforms.</t>
+  </si>
+  <si>
+    <t>Z-Tranforms 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Transform analysis of LTI Systems, unilateral Z- Transform and its application to solve difference equations.</t>
+    </r>
+  </si>
+  <si>
+    <t>10EC44</t>
+  </si>
+  <si>
+    <t>Why HDL? , A Brief History of HDL, Structure of HDL Module, Operators, Data types, Types of Descriptions, simulation and synthesis, Brief comparison of VHDL and Verilog</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Highlights of Data-Flow Descriptions, Structure of Data-Flow Description, Data Type – Vectors.</t>
+    </r>
+  </si>
+  <si>
+    <t>10EC45</t>
+  </si>
+  <si>
+    <t>Behavioral Description highlights, structure of HDL behavioral Description, The VHDL variable –Assignment Statement, sequential statements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Highlights of structural Description, Organization of the structural Descriptions, Binding, state Machines, Generate, Generic, and Parameter statements.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Highlights of Procedures, tasks, and Functions, Procedures and tasks, Functions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Why Mixed-Type Description? VHDL User- Defined Types, VHDL Packages, Mixed-Type Description examples</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Highlights of Mixed-Language Description, How to invoke One language from the Other, Mixed-language Description Examples, Limitations of Mixed-Language Description.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Highlights of Synthesis, Synthesis information from Entity and Module, Mapping Process and Always in the Hardware Domain.</t>
+    </r>
+  </si>
+  <si>
+    <t>10EC46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Basic Op-Amp circuit, Op-Amp parameters – Input and output voltage, CMRR and PSRR, offset voltages and currents, Input and output impedances, Slew rate and Frequency limitations; Op-Amps as DC Amplifiers- Biasing Op-Amps, Direct coupled -Voltage Followers, Non-inverting Amplifiers, Inverting amplifiers, Summing amplifiers, Difference amplifier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op-Amps as AC Amplifiers: </t>
+  </si>
+  <si>
+    <t>Capacitor coupled Voltage Follower, High input impedance - Capacitor coupled Voltage Follower, Capacitor coupled Non-inverting Amplifiers, High input impedance - Capacitor coupled Non- inverting Amplifiers, Capacitor coupled Inverting amplifiers, setting the upper cut-off frequency, Capacitor coupled Difference amplifier, Use of a single polarity power supply.</t>
+  </si>
+  <si>
+    <r>
+      <t>Circuit stability, Frequency and phase response, Frequency compensating methods, Band width, Slew rate effects, Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mod compensation, and circuit stability precautions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Voltage sources, current sources and current sinks, Current amplifiers, instrumentation amplifier, precision rectifiers, Limiting circuits.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Clamping circuits, Peak detectors, sample and hold circuits, V to I and I to V converters, Log and antilog amplifiers, Multiplier and divider, Triangular / rectangular wave generators, Wave form generator design, phase shift oscillator, Wein bridge oscillator.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">crossing detectors, inverting Schmitt  trigger circuits, Monostable &amp; Astable multivibrator, Active Filters </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>First  and second order Low pass &amp; High pass filters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Introduction, Series Op-Amp regulator, IC Voltage regulators, 723 general purpose regulator, Switching regulator.</t>
+    </r>
+  </si>
+  <si>
+    <t>Other Linear IC applications:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 555 timer - Basic timer circuit, 555 timer used as astable and monostable multivibrator, Schmitt trigger; PLL-operating principles, Phase detector / comparator, VCO; D/A and A/ D converters – Basic DAC Techniques, AD converters.</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Block move, Exchange, Sorting, Finding largest element in an array.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Transfer -</t>
+  </si>
+  <si>
+    <t>Arithmetic Instructions -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Addition/subtraction, multiplication and division, square, Cube – (16 bits Arithmetic operations – bit addressable).</t>
+  </si>
+  <si>
+    <t>Counters.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Boolean &amp; Logical Instructions (Bit manipulations).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conditional CALL &amp; RETURN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programs to generate delay, Programs using serial port and on-Chip timer / counter.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Simple Calculator using 6 digit seven segment displays and Hex Keyboard interface to 8051.</t>
+    </r>
+  </si>
+  <si>
+    <t>Alphanumeric LCD panel and Hex keypad input interface to 8051.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> External ADC and Temperature control interface to 8051.</t>
+  </si>
+  <si>
+    <t>Generate different waveforms Sine, Square, Triangular, Ramp etc. using DAC interface to 8051; change the frequency and amplitude.</t>
+  </si>
+  <si>
+    <t>Stepper and DC motor control interface to 8051.</t>
+  </si>
+  <si>
+    <t>Elevator interface to 8051.</t>
+  </si>
+  <si>
+    <t>10ECL48</t>
+  </si>
+  <si>
+    <t>10ESL47</t>
+  </si>
+  <si>
+    <t>Write HDL code to realize all the logic gates</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Write a HDL program for the following combinational designs  a. 2 to 4 decoder  b. 8 to 3 (encoder without priority &amp; with priority)  c. 8 to 1 multiplexer   d. 4 bit binary to gray converter
+e. Multiplexer, de-multiplexer, comparator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Write a HDL code to describe the functions of a Full Adder Using three modeling styles.</t>
+    </r>
+  </si>
+  <si>
+    <t>Write a model for 32 bit ALU using the schematic diagram shown below A (31:0)	B (31:0)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ALU should use combinational logic to calculate an output based on the four bit op-code input.</t>
+    </r>
+  </si>
+  <si>
+    <t>ALU should pass the result to the out bus when enable line in high, and tri-state the out bus when the enable line is low</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ALU should decode the 4 bit op-code according to the given in example below.</t>
+    </r>
+  </si>
+  <si>
+    <t>OPCODE</t>
+  </si>
+  <si>
+    <t>ALU OPERATION</t>
+  </si>
+  <si>
+    <t>A + B</t>
+  </si>
+  <si>
+    <t>A – B</t>
+  </si>
+  <si>
+    <t>A Complement</t>
+  </si>
+  <si>
+    <t>A * B</t>
+  </si>
+  <si>
+    <t>A AND B</t>
+  </si>
+  <si>
+    <t>A OR B</t>
+  </si>
+  <si>
+    <t>A NAND B</t>
+  </si>
+  <si>
+    <t>A XOR B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Develop the HDL code for the following flip-flops, SR, D, JK, T.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Design 4 bit binary, BCD counters (Synchronous reset and Asynchronous reset) and “any sequence” counters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Write HDL code to display messages on the given seven segment display and LCD and accepting Hex key pad input data.</t>
+    </r>
+  </si>
+  <si>
+    <t>Interfacing Programs</t>
+  </si>
+  <si>
+    <t>2.       Write HDL code to control speed, direction of DC and Stepper motor.</t>
+  </si>
+  <si>
+    <t>3.       Write HDL code to accept 8 channel Analog signal, Temperature sensors and display the data on LCD panel or Seven segment display.</t>
+  </si>
+  <si>
+    <t>4.       Write HDL code to generate different waveforms (Sine, Square,  Triangle, Ramp etc.,) using DAC change the frequency and amplitude.</t>
+  </si>
+  <si>
+    <t>5.       Write HDL code to simulate Elevator operations</t>
+  </si>
+  <si>
+    <t>6. Write HDL code to control external lights using relays.</t>
+  </si>
+  <si>
+    <t>MICROCONTROLLER</t>
+  </si>
+  <si>
+    <t>CONTROL SYSTEMS</t>
+  </si>
+  <si>
+    <t>SIGNALS AND SYSTEMS</t>
+  </si>
+  <si>
+    <t>HDL</t>
+  </si>
+  <si>
+    <t>LINEAR INTEGRATED CIRCUIT APPLICATIONS</t>
+  </si>
+  <si>
+    <t>MICROCONTROLLER LAB</t>
+  </si>
+  <si>
+    <t>HDL LAB</t>
+  </si>
+  <si>
+    <t>Data –Flow Descriptions</t>
+  </si>
+  <si>
+    <t>Behavioral Descriptions</t>
+  </si>
+  <si>
+    <t>Structural Descriptions</t>
+  </si>
+  <si>
+    <t>Procedures, Tasks, and Functions</t>
+  </si>
+  <si>
+    <t>Mixed –Type Descriptions</t>
+  </si>
+  <si>
+    <t>Mixed –Language Descriptions</t>
+  </si>
+  <si>
+    <t>Synthesis Basics</t>
+  </si>
+  <si>
+    <t>Advanced HDL Descriptions: File Processing, Examples of File Processing</t>
+  </si>
+  <si>
+    <t>Operational Amplifier Fundamentals</t>
+  </si>
+  <si>
+    <t>Op-Amps frequency response and compensation</t>
+  </si>
+  <si>
+    <t>Voltage Regulators</t>
+  </si>
+  <si>
+    <t>Non-linear circuit applications</t>
+  </si>
+  <si>
+    <t>More applications</t>
+  </si>
+  <si>
+    <t>OP-AMP Applications</t>
+  </si>
+  <si>
+    <t>Code conversion:BCD – ASCII; ASCII – Decimal; Decimal - ASCII; HEX - Decimal and Decimal - HEX .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +1633,104 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -217,7 +1747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -240,11 +1770,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -274,6 +1839,58 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -369,6 +1986,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -404,6 +2038,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,26 +2231,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -622,7 +2273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -645,7 +2296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -668,7 +2319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -691,7 +2342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
@@ -714,7 +2365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -737,7 +2388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -760,7 +2411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
@@ -783,7 +2434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
@@ -806,7 +2457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -827,6 +2478,167 @@
       </c>
       <c r="G10" s="2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="30">
+        <v>25</v>
+      </c>
+      <c r="D11" s="30">
+        <v>3</v>
+      </c>
+      <c r="E11" s="30">
+        <v>4</v>
+      </c>
+      <c r="F11" s="30">
+        <v>52</v>
+      </c>
+      <c r="G11" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="30">
+        <v>25</v>
+      </c>
+      <c r="D12" s="30">
+        <v>3</v>
+      </c>
+      <c r="E12" s="30">
+        <v>4</v>
+      </c>
+      <c r="F12" s="30">
+        <v>52</v>
+      </c>
+      <c r="G12" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="30">
+        <v>25</v>
+      </c>
+      <c r="D13" s="30">
+        <v>3</v>
+      </c>
+      <c r="E13" s="30">
+        <v>4</v>
+      </c>
+      <c r="F13" s="30">
+        <v>52</v>
+      </c>
+      <c r="G13" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="30">
+        <v>25</v>
+      </c>
+      <c r="D14" s="30">
+        <v>3</v>
+      </c>
+      <c r="E14" s="30">
+        <v>4</v>
+      </c>
+      <c r="F14" s="30">
+        <v>52</v>
+      </c>
+      <c r="G14" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="30">
+        <v>25</v>
+      </c>
+      <c r="D15" s="30">
+        <v>3</v>
+      </c>
+      <c r="E15" s="30">
+        <v>4</v>
+      </c>
+      <c r="F15" s="30">
+        <v>52</v>
+      </c>
+      <c r="G15" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="30">
+        <v>25</v>
+      </c>
+      <c r="D16" s="30">
+        <v>3</v>
+      </c>
+      <c r="E16" s="30">
+        <v>3</v>
+      </c>
+      <c r="F16" s="30">
+        <v>0</v>
+      </c>
+      <c r="G16" s="30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="30">
+        <v>25</v>
+      </c>
+      <c r="D17" s="30">
+        <v>3</v>
+      </c>
+      <c r="E17" s="30">
+        <v>3</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0</v>
+      </c>
+      <c r="G17" s="30">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -835,25 +2647,1260 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="26">
+        <v>2</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="26">
+        <v>3</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="26">
+        <v>4</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="26">
+        <v>5</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="26">
+        <v>6</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="26">
+        <v>7</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="26">
+        <v>8</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="141" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="18">
+        <v>5</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="18">
+        <v>6</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="18">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="18">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.08984375" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -873,171 +3920,648 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2">
+    <row r="5" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2">
+    <row r="8" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="8">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F10">
-        <f>SUM(F2:F9)</f>
-        <v>52</v>
-      </c>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1046,45 +4570,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1092,83 +4612,77 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="243" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1177,45 +4691,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1223,10 +4733,16 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1234,10 +4750,16 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1245,10 +4767,16 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1256,10 +4784,16 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1267,10 +4801,16 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1278,10 +4818,16 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1289,16 +4835,33 @@
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9">
         <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1308,45 +4871,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:F9"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1354,10 +4912,16 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1365,10 +4929,16 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1376,10 +4946,16 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1387,10 +4963,16 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1398,10 +4980,16 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1409,10 +4997,16 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1420,16 +5014,38 @@
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9">
         <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1439,23 +5055,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1475,92 +5091,170 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>8</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1570,45 +5264,44 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:F9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1616,10 +5309,16 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1627,10 +5326,16 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1638,10 +5343,16 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1649,10 +5360,16 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1660,38 +5377,72 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E7" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
         <v>8</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1701,128 +5452,152 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D4" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="C9">
         <v>8</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1832,128 +5607,184 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D4" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="C9">
         <v>8</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
